--- a/TEA/TEA_SMR process.xlsx
+++ b/TEA/TEA_SMR process.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E4439-EEA6-4464-AD12-F6EB9968093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE645A52-8BD1-4D05-A25B-1487456AC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4365" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMR" sheetId="1" r:id="rId1"/>
     <sheet name="SMR EAC&amp;TPC" sheetId="2" r:id="rId2"/>
+    <sheet name="Revenue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>Capex</t>
   </si>
@@ -403,6 +404,26 @@
   </si>
   <si>
     <t>EAC</t>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow rate [kg/h]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost [USD/kg]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue [$/yr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +562,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -720,15 +747,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,9 +981,16 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{431CFFB4-FE25-4029-96AD-1D5BE4F1B7A6}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1238,26 +1275,26 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="29" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="107.5" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1351,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1379,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1406,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1434,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1492,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1483,7 +1520,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +1547,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1575,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1603,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1594,7 +1631,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
@@ -1624,7 +1661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
@@ -1651,7 +1688,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1715,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1706,7 +1743,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1736,7 +1773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1800,7 @@
       </c>
       <c r="J21" s="68"/>
     </row>
-    <row r="22" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
@@ -1778,13 +1815,13 @@
         <v>118568.87947438288</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +1835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
@@ -1831,7 +1868,7 @@
         <v>15.776304667506</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1897,7 @@
         <v>1040.9697067761001</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
         <v>18</v>
       </c>
@@ -1878,7 +1915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1930,7 @@
         <v>175.47640652493001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1945,7 @@
         <v>434.37454837740006</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1988,7 @@
         <v>283.87901244599999</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +2017,7 @@
         <v>0.15192246699088199</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
         <v>31</v>
       </c>
@@ -2008,7 +2045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2060,7 @@
         <v>2.1567540490137</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
         <v>33</v>
       </c>
@@ -2037,7 +2074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
         <v>36</v>
       </c>
@@ -2051,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>37</v>
       </c>
@@ -2065,8 +2102,8 @@
         <v>2445.9226706579411</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="s">
         <v>43</v>
       </c>
@@ -2078,7 +2115,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B53" s="48" t="s">
         <v>44</v>
       </c>
@@ -2086,7 +2123,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="11" t="s">
         <v>46</v>
       </c>
@@ -2119,21 +2156,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="55.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.8984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.69921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2183,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
@@ -2182,7 +2219,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="52"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="18" t="s">
         <v>58</v>
       </c>
@@ -2200,7 +2237,7 @@
         <v>3952.2959824794293</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
         <v>61</v>
       </c>
@@ -2220,7 +2257,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="53"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="22" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
         <v>67</v>
       </c>
@@ -2269,7 +2306,7 @@
         <v>2445.9226706579411</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>70</v>
       </c>
@@ -2291,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
         <v>73</v>
       </c>
@@ -2316,7 +2353,7 @@
         <v>0.96693728499999998</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="22"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -2332,7 +2369,7 @@
         <v>158.09183929917717</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="18" t="s">
         <v>78</v>
       </c>
@@ -2350,7 +2387,7 @@
         <v>2026.0535081019511</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="22" t="s">
         <v>81</v>
       </c>
@@ -2375,7 +2412,7 @@
         <v>607.81605243058527</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
         <v>85</v>
       </c>
@@ -2400,7 +2437,7 @@
         <v>23.713775894876573</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
         <v>89</v>
       </c>
@@ -2425,7 +2462,7 @@
         <v>303.90802621529264</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
         <v>93</v>
       </c>
@@ -2443,7 +2480,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="53"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="22"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -2459,7 +2496,7 @@
         <v>1675.1768398990282</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="18" t="s">
         <v>97</v>
       </c>
@@ -2473,7 +2510,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="53"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="22"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -2484,7 +2521,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="53"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="18" t="s">
         <v>99</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>354.55936391784144</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
         <v>102</v>
       </c>
@@ -2527,7 +2564,7 @@
         <v>1485.7725726080976</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
         <v>106</v>
       </c>
@@ -2552,7 +2589,7 @@
         <v>472.74581855712199</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="22" t="s">
         <v>110</v>
       </c>
@@ -2570,7 +2607,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="53"/>
     </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="22" t="s">
         <v>111</v>
       </c>
@@ -2593,7 +2630,7 @@
         <v>13507.023387346342</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="22"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -2602,7 +2639,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="58"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="18" t="s">
         <v>114</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>6675.8463091959302</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="22"/>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
@@ -2628,7 +2665,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="58"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="22" t="s">
         <v>115</v>
       </c>
@@ -2651,7 +2688,7 @@
         <v>2791.9613998317136</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="22" t="s">
         <v>117</v>
       </c>
@@ -2670,7 +2707,7 @@
         <v>13507.023387346342</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="22" t="s">
         <v>118</v>
       </c>
@@ -2685,13 +2722,13 @@
         <v>79045.919649588584</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="22"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="18" t="s">
         <v>119</v>
       </c>
@@ -2704,7 +2741,7 @@
         <v>553321.43754712003</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="26" t="s">
         <v>121</v>
       </c>
@@ -2715,6 +2752,55 @@
       <c r="E34" s="26">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
         <v>54963.321938434543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358E173-ED83-4025-838E-CB87D75FED62}">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40">
+        <v>4.53</v>
+      </c>
+      <c r="E3" s="81">
+        <f>C3*D3*8500</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TEA/TEA_SMR process.xlsx
+++ b/TEA/TEA_SMR process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE645A52-8BD1-4D05-A25B-1487456AC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F37BF57-C5CB-44E6-99AC-24DE9995D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMR" sheetId="1" r:id="rId1"/>
@@ -407,23 +407,18 @@
   </si>
   <si>
     <t>Product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Flow rate [kg/h]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cost [USD/kg]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Revenue [$/yr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -754,7 +749,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,7 +985,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{431CFFB4-FE25-4029-96AD-1D5BE4F1B7A6}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1271,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1337,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="42">
-        <v>0.94221838099999999</v>
+        <v>8.3788875899999997</v>
       </c>
       <c r="G5" s="7">
         <v>0.9</v>
@@ -1347,7 +1342,7 @@
       </c>
       <c r="I5" s="3">
         <f>C5*(F5/E5)^G5*(595.6/444.2)</f>
-        <v>2399.95892561045</v>
+        <v>17152.803860041513</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1365,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="43">
-        <v>9.1270180000000006E-3</v>
+        <v>8.5023928999999998E-2</v>
       </c>
       <c r="G6">
         <v>0.59</v>
@@ -1375,7 +1370,7 @@
       </c>
       <c r="I6" s="5">
         <f>C6*(F6/E6)^G6*(595.6/499.6)</f>
-        <v>768.51140195191215</v>
+        <v>2867.3819723969323</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -1420,7 +1415,7 @@
         <v>4.79</v>
       </c>
       <c r="F8" s="43">
-        <v>15.4220199</v>
+        <v>137.14375999999999</v>
       </c>
       <c r="G8">
         <v>0.78</v>
@@ -1430,7 +1425,7 @@
       </c>
       <c r="I8" s="5">
         <f>C8*(F8/E8)^G8*(595.6/357.6)</f>
-        <v>8706.9280444963842</v>
+        <v>47875.364542199262</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -1448,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="43">
-        <v>2.4718904E-2</v>
+        <v>0.21981837800000001</v>
       </c>
       <c r="G9">
         <v>0.55000000000000004</v>
@@ -1458,7 +1453,7 @@
       </c>
       <c r="I9" s="5">
         <f>C9*(F9/E9)^G9*(595.6/394.1)</f>
-        <v>906.51798212381595</v>
+        <v>3015.4043488771222</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>19</v>
@@ -1478,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="43">
-        <v>2.5301007E-2</v>
+        <v>0.224997159</v>
       </c>
       <c r="G10">
         <v>0.59</v>
@@ -1488,7 +1483,7 @@
       </c>
       <c r="I10" s="5">
         <f>C10*(F10/E10)^G10*(595.6/499.6)</f>
-        <v>1402.5151658105801</v>
+        <v>5091.440940187219</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -1506,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="43">
-        <v>3.1410452999999998E-2</v>
+        <v>0.27932447599999999</v>
       </c>
       <c r="G11">
         <v>0.59</v>
@@ -1516,7 +1511,7 @@
       </c>
       <c r="I11" s="5">
         <f>C11*(F11/E11)^G11*(595.6/499.6)</f>
-        <v>1593.4191709428076</v>
+        <v>5784.4299462570762</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -1561,7 +1556,7 @@
         <v>4.79</v>
       </c>
       <c r="F13" s="43">
-        <v>15.4220199</v>
+        <v>137.14375999999999</v>
       </c>
       <c r="G13">
         <v>0.78</v>
@@ -1571,7 +1566,7 @@
       </c>
       <c r="I13" s="5">
         <f>C13*(F13/E13)^G13*(595.6/357.6)</f>
-        <v>8706.9280444963842</v>
+        <v>47875.364542199262</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -1589,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="43">
-        <v>0.212900228</v>
+        <v>2.6390771599999998</v>
       </c>
       <c r="G14">
         <v>0.59</v>
@@ -1599,7 +1594,7 @@
       </c>
       <c r="I14" s="5">
         <f>C14*(F14/E14)^G14*(595.6/499.6)</f>
-        <v>4928.1075221932269</v>
+        <v>21762.710861572978</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -1617,7 +1612,7 @@
         <v>359263</v>
       </c>
       <c r="F15" s="43">
-        <v>15.4220199</v>
+        <v>137.14375999999999</v>
       </c>
       <c r="G15">
         <v>0.6</v>
@@ -1627,7 +1622,7 @@
       </c>
       <c r="I15" s="5">
         <f>C15*(F15/E15)^G15*(595.6/389.5)</f>
-        <v>604.73963230598429</v>
+        <v>2243.8266781106572</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -1645,7 +1640,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="43">
-        <v>0.98837313100000002</v>
+        <v>8.7893322600000001</v>
       </c>
       <c r="G16">
         <v>0.6</v>
@@ -1655,7 +1650,7 @@
       </c>
       <c r="I16" s="5">
         <f>C16*(F16/E16)^G16*(595.6/394.1)</f>
-        <v>54437.197274259415</v>
+        <v>201983.88825965172</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>29</v>
@@ -1729,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="43">
-        <v>7.4219230000000004E-3</v>
+        <v>6.7439018000000003E-2</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -1739,7 +1734,7 @@
       </c>
       <c r="I19" s="5">
         <f>C19*(F19/E19)^G19*(595.6/499.6)</f>
-        <v>680.23811450771166</v>
+        <v>2501.0011440354597</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -1757,7 +1752,7 @@
         <v>600</v>
       </c>
       <c r="F20" s="43">
-        <v>8.90729565</v>
+        <v>79.2101708</v>
       </c>
       <c r="G20">
         <v>0.7</v>
@@ -1767,7 +1762,7 @@
       </c>
       <c r="I20" s="5">
         <f>C20*(F20/E20)^G20*(595.6/444.2)</f>
-        <v>33433.818195684209</v>
+        <v>154351.38616519602</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>35</v>
@@ -1812,7 +1807,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="44">
         <f>SUM(I5:I21)</f>
-        <v>118568.87947438288</v>
+        <v>512505.00326072524</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1840,14 +1835,14 @@
         <v>10</v>
       </c>
       <c r="C30" s="72">
-        <v>0.94221838099999999</v>
+        <v>8.3788875899999997</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="39">
         <f>C30*C53*D52</f>
-        <v>480.53137430999999</v>
+        <v>4273.232670899999</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -1861,11 +1856,11 @@
         <v>15</v>
       </c>
       <c r="D31" s="74">
-        <v>64.851007800000005</v>
+        <v>576.70208400000001</v>
       </c>
       <c r="E31" s="39">
         <f>D31*IF(D31&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>15.776304667506</v>
+        <v>140.29431597467999</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1890,11 +1885,11 @@
         <v>15</v>
       </c>
       <c r="D33" s="74">
-        <v>4279.07143</v>
+        <v>38052.599300000002</v>
       </c>
       <c r="E33" s="39">
         <f>D33*IF(D33&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>1040.9697067761001</v>
+        <v>9257.0558317110008</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
@@ -1902,14 +1897,14 @@
         <v>18</v>
       </c>
       <c r="C34" s="73">
-        <v>2.4718904E-2</v>
+        <v>0.21981837800000001</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="39">
         <f>C34*C53*D52</f>
-        <v>12.60664104</v>
+        <v>112.10737278000001</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -1923,11 +1918,11 @@
         <v>15</v>
       </c>
       <c r="D35" s="76">
-        <v>721.32365900000002</v>
+        <v>6414.5318900000002</v>
       </c>
       <c r="E35" s="39">
         <f>D35*IF(D35&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>175.47640652493001</v>
+        <v>1560.4631728802999</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
@@ -1938,11 +1933,11 @@
         <v>15</v>
       </c>
       <c r="D36" s="76">
-        <v>1785.5656200000001</v>
+        <v>15878.541499999999</v>
       </c>
       <c r="E36" s="39">
         <f>D36*IF(D36&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>434.37454837740006</v>
+        <v>3862.7727907049998</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
@@ -1981,11 +1976,11 @@
         <v>15</v>
       </c>
       <c r="D39" s="74">
-        <v>1166.9297999999999</v>
+        <v>-10377.1374</v>
       </c>
       <c r="E39" s="39">
         <f>D39*IF(D39&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>283.87901244599999</v>
+        <v>282.29341954716</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
@@ -2010,11 +2005,11 @@
         <v>15</v>
       </c>
       <c r="D41" s="74">
-        <v>-5.5846867299999996</v>
+        <v>-49.6631353</v>
       </c>
       <c r="E41" s="39">
         <f>D41*IF(D41&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>0.15192246699088199</v>
+        <v>1.3510061348200202</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
@@ -2053,11 +2048,11 @@
         <v>15</v>
       </c>
       <c r="D44" s="74">
-        <v>8.8656803100000001</v>
+        <v>78.840153400000005</v>
       </c>
       <c r="E44" s="39">
         <f>D44*IF(D44&gt;0,$C$55,$C$54)*$C$52</f>
-        <v>2.1567540490137</v>
+        <v>19.179444117618001</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
@@ -2094,12 +2089,12 @@
       </c>
       <c r="C47" s="78">
         <f>SUM(C30:C46)</f>
-        <v>0.96693728499999998</v>
+        <v>8.5987059679999991</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="60">
         <f>SUM(E30:E46)</f>
-        <v>2445.9226706579411</v>
+        <v>19508.750024750578</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2156,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2234,7 +2229,7 @@
       </c>
       <c r="K6" s="53">
         <f>SUM(E29*0.01)</f>
-        <v>3952.2959824794293</v>
+        <v>17083.500108690841</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2249,7 +2244,7 @@
       </c>
       <c r="E7" s="45">
         <f>SMR!I22</f>
-        <v>118568.87947438288</v>
+        <v>512505.00326072524</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>63</v>
@@ -2269,7 +2264,7 @@
       </c>
       <c r="E8" s="22">
         <f>SUM(E29*0.1)</f>
-        <v>39522.959824794292</v>
+        <v>170835.00108690842</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>66</v>
@@ -2293,7 +2288,7 @@
       </c>
       <c r="E9" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>69</v>
@@ -2303,7 +2298,7 @@
       </c>
       <c r="K9" s="61">
         <f>SMR!E47</f>
-        <v>2445.9226706579411</v>
+        <v>19508.750024750578</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2318,7 +2313,7 @@
       </c>
       <c r="E10" s="22">
         <f>SUM(E29*0.1)</f>
-        <v>39522.959824794292</v>
+        <v>170835.00108690842</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>72</v>
@@ -2340,7 +2335,7 @@
       </c>
       <c r="E11" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>75</v>
@@ -2350,7 +2345,7 @@
       </c>
       <c r="K11" s="79">
         <f>SMR!C47</f>
-        <v>0.96693728499999998</v>
+        <v>8.5987059679999991</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2366,7 +2361,7 @@
       </c>
       <c r="K12" s="56">
         <f>SUM(K6*0.04)</f>
-        <v>158.09183929917717</v>
+        <v>683.34000434763368</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2384,7 +2379,7 @@
       </c>
       <c r="K13" s="53">
         <f>SUM(K25*0.15)</f>
-        <v>2026.0535081019511</v>
+        <v>11470.923777547125</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2399,7 +2394,7 @@
       </c>
       <c r="E14" s="22">
         <f>SUM(E29*0.08)</f>
-        <v>31618.367859835435</v>
+        <v>136668.00086952673</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>83</v>
@@ -2409,7 +2404,7 @@
       </c>
       <c r="K14" s="53">
         <f>SUM(K13*0.3)</f>
-        <v>607.81605243058527</v>
+        <v>3441.2771332641373</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2424,7 +2419,7 @@
       </c>
       <c r="E15" s="22">
         <f>SUM(E29*0.02)</f>
-        <v>7904.5919649588586</v>
+        <v>34167.000217381683</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>87</v>
@@ -2434,7 +2429,7 @@
       </c>
       <c r="K15" s="53">
         <f>SUM(K12*0.15)</f>
-        <v>23.713775894876573</v>
+        <v>102.50100065214505</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -2449,7 +2444,7 @@
       </c>
       <c r="E16" s="22">
         <f>SUM(E29*0.08)</f>
-        <v>31618.367859835435</v>
+        <v>136668.00086952673</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>91</v>
@@ -2459,7 +2454,7 @@
       </c>
       <c r="K16" s="53">
         <f>SUM(K13*0.15)</f>
-        <v>303.90802621529264</v>
+        <v>1720.6385666320687</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
@@ -2474,7 +2469,7 @@
       </c>
       <c r="E17" s="22">
         <f>SUM(E29*0.02)</f>
-        <v>7904.5919649588586</v>
+        <v>34167.000217381683</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="34"/>
@@ -2493,7 +2488,7 @@
       </c>
       <c r="K18" s="53">
         <f>SUM(0.6*K29)</f>
-        <v>1675.1768398990282</v>
+        <v>9357.3245490953377</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -2504,7 +2499,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="22">
         <f>SUM(E7:E17)</f>
-        <v>316183.6785983544</v>
+        <v>1366680.0086952671</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="34"/>
@@ -2536,7 +2531,7 @@
       </c>
       <c r="K21" s="53">
         <f>SUM(K13*0.175)</f>
-        <v>354.55936391784144</v>
+        <v>2007.4116610707467</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
@@ -2551,7 +2546,7 @@
       </c>
       <c r="E22" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>104</v>
@@ -2561,7 +2556,7 @@
       </c>
       <c r="K22" s="53">
         <f>SUM(K25*0.11)</f>
-        <v>1485.7725726080976</v>
+        <v>8412.0107702012247</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -2576,7 +2571,7 @@
       </c>
       <c r="E23" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>108</v>
@@ -2586,7 +2581,7 @@
       </c>
       <c r="K23" s="53">
         <f>SUM(K25*0.035)</f>
-        <v>472.74581855712199</v>
+        <v>2676.5488814276628</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -2601,7 +2596,7 @@
       </c>
       <c r="E24" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="37"/>
@@ -2619,7 +2614,7 @@
       </c>
       <c r="E25" s="22">
         <f>SUM(E29*0.05)</f>
-        <v>19761.479912397146</v>
+        <v>85417.500543454211</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>113</v>
@@ -2627,7 +2622,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="57">
         <f>SUM(K27/0.49425)</f>
-        <v>13507.023387346342</v>
+        <v>76472.825183647496</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -2647,13 +2642,13 @@
       <c r="D27" s="20"/>
       <c r="E27" s="22">
         <f>SUM(E22:E25)</f>
-        <v>79045.919649588584</v>
+        <v>341670.00217381684</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="58">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>6675.8463091959302</v>
+        <v>37796.693847017777</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
@@ -2677,7 +2672,7 @@
       </c>
       <c r="E29" s="22">
         <f>SUM(E7*100/D7)</f>
-        <v>395229.59824794292</v>
+        <v>1708350.0108690842</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
@@ -2685,7 +2680,7 @@
       </c>
       <c r="K29" s="58">
         <f>(K12+K13+K14)</f>
-        <v>2791.9613998317136</v>
+        <v>15595.540915158896</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
@@ -2700,11 +2695,11 @@
       </c>
       <c r="E30" s="22">
         <f>SUM(E29*0.2)</f>
-        <v>79045.919649588584</v>
+        <v>341670.00217381684</v>
       </c>
       <c r="K30" s="59">
         <f>SUM(K6:K23)</f>
-        <v>13507.023387346342</v>
+        <v>76472.82518364751</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
@@ -2719,7 +2714,7 @@
       </c>
       <c r="E31" s="22">
         <f>SUM(E29*0.2)</f>
-        <v>79045.919649588584</v>
+        <v>341670.00217381684</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
@@ -2738,7 +2733,7 @@
       <c r="D33" s="25"/>
       <c r="E33" s="18">
         <f>SUM(E29:E31)</f>
-        <v>553321.43754712003</v>
+        <v>2391690.015216718</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2751,7 +2746,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="26">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>54963.321938434543</v>
+        <v>237574.79714872126</v>
       </c>
     </row>
   </sheetData>
@@ -2761,22 +2756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358E173-ED83-4025-838E-CB87D75FED62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16" style="38" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
@@ -2790,17 +2785,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="40">
+        <v>11.250741400000001</v>
+      </c>
       <c r="D3" s="40">
         <v>4.53</v>
       </c>
       <c r="E3" s="81">
         <f>C3*D3*8500</f>
-        <v>0</v>
+        <v>433209.79760700004</v>
       </c>
     </row>
   </sheetData>
